--- a/Exercicio 2/knnPeformance.xlsx
+++ b/Exercicio 2/knnPeformance.xlsx
@@ -426,16 +426,16 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>0.8256257251781867</v>
+        <v>0.8289408254599702</v>
       </c>
       <c r="E2">
-        <v>0.8783783783783784</v>
+        <v>0.7252124645892352</v>
       </c>
       <c r="F2">
-        <v>0.8908045977011494</v>
+        <v>0.5089463220675944</v>
       </c>
       <c r="G2">
-        <v>0.8845478489903424</v>
+        <v>0.5981308411214953</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,16 +449,16 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>0.8332504558262888</v>
+        <v>0.8340792308967346</v>
       </c>
       <c r="E3">
-        <v>0.8725116476069462</v>
+        <v>0.7263814616755794</v>
       </c>
       <c r="F3">
-        <v>0.9106984969053935</v>
+        <v>0.5400927766732936</v>
       </c>
       <c r="G3">
-        <v>0.8911961929483019</v>
+        <v>0.6195362979855569</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,16 +472,16 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>0.8377258412066965</v>
+        <v>0.8385546162771423</v>
       </c>
       <c r="E4">
-        <v>0.8701190227604928</v>
+        <v>0.7407740774077408</v>
       </c>
       <c r="F4">
-        <v>0.9210875331564987</v>
+        <v>0.5453943008614976</v>
       </c>
       <c r="G4">
-        <v>0.8948781273488673</v>
+        <v>0.6282442748091602</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,16 +495,16 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>0.8359025360517156</v>
+        <v>0.8347422509530913</v>
       </c>
       <c r="E5">
-        <v>0.8641797197032152</v>
+        <v>0.7310469314079422</v>
       </c>
       <c r="F5">
-        <v>0.9268346595932803</v>
+        <v>0.536779324055666</v>
       </c>
       <c r="G5">
-        <v>0.8944112627986348</v>
+        <v>0.619029423003439</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,16 +518,16 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>0.8335819658544671</v>
+        <v>0.8320901707276646</v>
       </c>
       <c r="E6">
-        <v>0.8609515996718622</v>
+        <v>0.7242314647377939</v>
       </c>
       <c r="F6">
-        <v>0.9279398762157383</v>
+        <v>0.5308151093439364</v>
       </c>
       <c r="G6">
-        <v>0.8931914893617022</v>
+        <v>0.6126195028680689</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -541,16 +541,16 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>0.8334162108403779</v>
+        <v>0.8339134758826454</v>
       </c>
       <c r="E7">
-        <v>0.8591549295774648</v>
+        <v>0.7332106715731371</v>
       </c>
       <c r="F7">
-        <v>0.9303713527851459</v>
+        <v>0.5281643472498343</v>
       </c>
       <c r="G7">
-        <v>0.8933460681311685</v>
+        <v>0.6140215716486903</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -564,16 +564,16 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.8319244157135753</v>
+        <v>0.834410740924913</v>
       </c>
       <c r="E8">
-        <v>0.8597785977859779</v>
+        <v>0.7305605786618445</v>
       </c>
       <c r="F8">
-        <v>0.9270557029177718</v>
+        <v>0.5354539430086149</v>
       </c>
       <c r="G8">
-        <v>0.8921506062539886</v>
+        <v>0.6179732313575526</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -587,16 +587,16 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>0.8327531907840212</v>
+        <v>0.8324216807558429</v>
       </c>
       <c r="E9">
-        <v>0.857870087558542</v>
+        <v>0.7263636363636363</v>
       </c>
       <c r="F9">
-        <v>0.9312555260831122</v>
+        <v>0.5294897282968853</v>
       </c>
       <c r="G9">
-        <v>0.8930577636459989</v>
+        <v>0.6124952088922959</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -610,16 +610,16 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>0.8340792308967346</v>
+        <v>0.8334162108403779</v>
       </c>
       <c r="E10">
-        <v>0.8607413475322547</v>
+        <v>0.7262118491921006</v>
       </c>
       <c r="F10">
-        <v>0.9290450928381963</v>
+        <v>0.5361166335321405</v>
       </c>
       <c r="G10">
-        <v>0.8935898798766875</v>
+        <v>0.6168509340449866</v>
       </c>
     </row>
   </sheetData>
